--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.4603155217268</v>
+        <v>10.52163533333333</v>
       </c>
       <c r="H2">
-        <v>10.4603155217268</v>
+        <v>31.564906</v>
       </c>
       <c r="I2">
-        <v>0.5071579910490577</v>
+        <v>0.4782136086181363</v>
       </c>
       <c r="J2">
-        <v>0.5071579910490577</v>
+        <v>0.4973545982298819</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.47254733739241</v>
+        <v>2.517755</v>
       </c>
       <c r="N2">
-        <v>2.47254733739241</v>
+        <v>7.553265</v>
       </c>
       <c r="O2">
-        <v>0.2565755642832794</v>
+        <v>0.2504376744648922</v>
       </c>
       <c r="P2">
-        <v>0.2565755642832794</v>
+        <v>0.286629885116792</v>
       </c>
       <c r="Q2">
-        <v>25.8636252915301</v>
+        <v>26.49089996867666</v>
       </c>
       <c r="R2">
-        <v>25.8636252915301</v>
+        <v>238.41809971809</v>
       </c>
       <c r="S2">
-        <v>0.1301243477341863</v>
+        <v>0.1197627040397902</v>
       </c>
       <c r="T2">
-        <v>0.1301243477341863</v>
+        <v>0.1425566913529393</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.4603155217268</v>
+        <v>10.52163533333333</v>
       </c>
       <c r="H3">
-        <v>10.4603155217268</v>
+        <v>31.564906</v>
       </c>
       <c r="I3">
-        <v>0.5071579910490577</v>
+        <v>0.4782136086181363</v>
       </c>
       <c r="J3">
-        <v>0.5071579910490577</v>
+        <v>0.4973545982298819</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.38875992503424</v>
+        <v>3.687724</v>
       </c>
       <c r="N3">
-        <v>3.38875992503424</v>
+        <v>11.063172</v>
       </c>
       <c r="O3">
-        <v>0.3516506951503644</v>
+        <v>0.3668129038085001</v>
       </c>
       <c r="P3">
-        <v>0.3516506951503644</v>
+        <v>0.4198231783721755</v>
       </c>
       <c r="Q3">
-        <v>35.44749804324141</v>
+        <v>38.80088713798133</v>
       </c>
       <c r="R3">
-        <v>35.44749804324141</v>
+        <v>349.207984241832</v>
       </c>
       <c r="S3">
-        <v>0.1783424601034634</v>
+        <v>0.1754149224179601</v>
       </c>
       <c r="T3">
-        <v>0.1783424601034634</v>
+        <v>0.2088009882068854</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.4603155217268</v>
+        <v>10.52163533333333</v>
       </c>
       <c r="H4">
-        <v>10.4603155217268</v>
+        <v>31.564906</v>
       </c>
       <c r="I4">
-        <v>0.5071579910490577</v>
+        <v>0.4782136086181363</v>
       </c>
       <c r="J4">
-        <v>0.5071579910490577</v>
+        <v>0.4973545982298819</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.77541455205809</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N4">
-        <v>3.77541455205809</v>
+        <v>0.000111</v>
       </c>
       <c r="O4">
-        <v>0.3917737405663562</v>
+        <v>3.680339808758602E-06</v>
       </c>
       <c r="P4">
-        <v>0.3917737405663562</v>
+        <v>4.212207204164545E-06</v>
       </c>
       <c r="Q4">
-        <v>39.49202743984647</v>
+        <v>0.0003893005073333334</v>
       </c>
       <c r="R4">
-        <v>39.49202743984647</v>
+        <v>0.003503704566</v>
       </c>
       <c r="S4">
-        <v>0.1986911832114079</v>
+        <v>1.759988580887432E-06</v>
       </c>
       <c r="T4">
-        <v>0.1986911832114079</v>
+        <v>2.094960621688271E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.66578613037009</v>
+        <v>10.52163533333333</v>
       </c>
       <c r="H5">
-        <v>7.66578613037009</v>
+        <v>31.564906</v>
       </c>
       <c r="I5">
-        <v>0.371668013800833</v>
+        <v>0.4782136086181363</v>
       </c>
       <c r="J5">
-        <v>0.371668013800833</v>
+        <v>0.4973545982298819</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.47254733739241</v>
+        <v>0.039625</v>
       </c>
       <c r="N5">
-        <v>2.47254733739241</v>
+        <v>0.118875</v>
       </c>
       <c r="O5">
-        <v>0.2565755642832794</v>
+        <v>0.003941444997893503</v>
       </c>
       <c r="P5">
-        <v>0.2565755642832794</v>
+        <v>0.004511046228784328</v>
       </c>
       <c r="Q5">
-        <v>18.95401908566623</v>
+        <v>0.4169198000833333</v>
       </c>
       <c r="R5">
-        <v>18.95401908566623</v>
+        <v>3.75227820075</v>
       </c>
       <c r="S5">
-        <v>0.0953609303669944</v>
+        <v>0.001884852635612555</v>
       </c>
       <c r="T5">
-        <v>0.0953609303669944</v>
+        <v>0.002243589584713453</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.66578613037009</v>
+        <v>10.52163533333333</v>
       </c>
       <c r="H6">
-        <v>7.66578613037009</v>
+        <v>31.564906</v>
       </c>
       <c r="I6">
-        <v>0.371668013800833</v>
+        <v>0.4782136086181363</v>
       </c>
       <c r="J6">
-        <v>0.371668013800833</v>
+        <v>0.4973545982298819</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.38875992503424</v>
+        <v>3.8082785</v>
       </c>
       <c r="N6">
-        <v>3.38875992503424</v>
+        <v>7.616557</v>
       </c>
       <c r="O6">
-        <v>0.3516506951503644</v>
+        <v>0.3788042963889053</v>
       </c>
       <c r="P6">
-        <v>0.3516506951503644</v>
+        <v>0.2890316780750441</v>
       </c>
       <c r="Q6">
-        <v>25.97750883248146</v>
+        <v>40.06931762477367</v>
       </c>
       <c r="R6">
-        <v>25.97750883248146</v>
+        <v>240.415905748642</v>
       </c>
       <c r="S6">
-        <v>0.1306973154182182</v>
+        <v>0.1811493695361925</v>
       </c>
       <c r="T6">
-        <v>0.1306973154182182</v>
+        <v>0.1437512341247221</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,247 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.66578613037009</v>
+        <v>8.509821666666667</v>
       </c>
       <c r="H7">
-        <v>7.66578613037009</v>
+        <v>25.529465</v>
       </c>
       <c r="I7">
-        <v>0.371668013800833</v>
+        <v>0.3867756673737729</v>
       </c>
       <c r="J7">
-        <v>0.371668013800833</v>
+        <v>0.4022567597096229</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.77541455205809</v>
+        <v>2.517755</v>
       </c>
       <c r="N7">
-        <v>3.77541455205809</v>
+        <v>7.553265</v>
       </c>
       <c r="O7">
-        <v>0.3917737405663562</v>
+        <v>0.2504376744648922</v>
       </c>
       <c r="P7">
-        <v>0.3917737405663562</v>
+        <v>0.286629885116792</v>
       </c>
       <c r="Q7">
-        <v>28.94152050956431</v>
+        <v>21.42564605035833</v>
       </c>
       <c r="R7">
-        <v>28.94152050956431</v>
+        <v>192.830814453225</v>
       </c>
       <c r="S7">
-        <v>0.1456097680156204</v>
+        <v>0.09686319867669438</v>
       </c>
       <c r="T7">
-        <v>0.1456097680156204</v>
+        <v>0.1152988088230222</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.49925712434595</v>
+        <v>8.509821666666667</v>
       </c>
       <c r="H8">
-        <v>2.49925712434595</v>
+        <v>25.529465</v>
       </c>
       <c r="I8">
-        <v>0.1211739951501094</v>
+        <v>0.3867756673737729</v>
       </c>
       <c r="J8">
-        <v>0.1211739951501094</v>
+        <v>0.4022567597096229</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.47254733739241</v>
+        <v>3.687724</v>
       </c>
       <c r="N8">
-        <v>2.47254733739241</v>
+        <v>11.063172</v>
       </c>
       <c r="O8">
-        <v>0.2565755642832794</v>
+        <v>0.3668129038085001</v>
       </c>
       <c r="P8">
-        <v>0.2565755642832794</v>
+        <v>0.4198231783721755</v>
       </c>
       <c r="Q8">
-        <v>6.179531548260591</v>
+        <v>31.38187359588667</v>
       </c>
       <c r="R8">
-        <v>6.179531548260591</v>
+        <v>282.43686236298</v>
       </c>
       <c r="S8">
-        <v>0.03109028618209867</v>
+        <v>0.1418743056718442</v>
       </c>
       <c r="T8">
-        <v>0.03109028618209867</v>
+        <v>0.1688767113829863</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.49925712434595</v>
+        <v>8.509821666666667</v>
       </c>
       <c r="H9">
-        <v>2.49925712434595</v>
+        <v>25.529465</v>
       </c>
       <c r="I9">
-        <v>0.1211739951501094</v>
+        <v>0.3867756673737729</v>
       </c>
       <c r="J9">
-        <v>0.1211739951501094</v>
+        <v>0.4022567597096229</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>3.38875992503424</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N9">
-        <v>3.38875992503424</v>
+        <v>0.000111</v>
       </c>
       <c r="O9">
-        <v>0.3516506951503644</v>
+        <v>3.680339808758602E-06</v>
       </c>
       <c r="P9">
-        <v>0.3516506951503644</v>
+        <v>4.212207204164545E-06</v>
       </c>
       <c r="Q9">
-        <v>8.469382385339872</v>
+        <v>0.0003148634016666667</v>
       </c>
       <c r="R9">
-        <v>8.469382385339872</v>
+        <v>0.002833770615</v>
       </c>
       <c r="S9">
-        <v>0.04261091962868284</v>
+        <v>1.423465885694872E-06</v>
       </c>
       <c r="T9">
-        <v>0.04261091962868284</v>
+        <v>1.69438882117276E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>8.509821666666667</v>
+      </c>
+      <c r="H10">
+        <v>25.529465</v>
+      </c>
+      <c r="I10">
+        <v>0.3867756673737729</v>
+      </c>
+      <c r="J10">
+        <v>0.4022567597096229</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.039625</v>
+      </c>
+      <c r="N10">
+        <v>0.118875</v>
+      </c>
+      <c r="O10">
+        <v>0.003941444997893503</v>
+      </c>
+      <c r="P10">
+        <v>0.004511046228784328</v>
+      </c>
+      <c r="Q10">
+        <v>0.3372016835416667</v>
+      </c>
+      <c r="R10">
+        <v>3.034815151875001</v>
+      </c>
+      <c r="S10">
+        <v>0.001524455019477278</v>
+      </c>
+      <c r="T10">
+        <v>0.001814598838891098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>8.509821666666667</v>
+      </c>
+      <c r="H11">
+        <v>25.529465</v>
+      </c>
+      <c r="I11">
+        <v>0.3867756673737729</v>
+      </c>
+      <c r="J11">
+        <v>0.4022567597096229</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.8082785</v>
+      </c>
+      <c r="N11">
+        <v>7.616557</v>
+      </c>
+      <c r="O11">
+        <v>0.3788042963889053</v>
+      </c>
+      <c r="P11">
+        <v>0.2890316780750441</v>
+      </c>
+      <c r="Q11">
+        <v>32.40777089200083</v>
+      </c>
+      <c r="R11">
+        <v>194.446625352005</v>
+      </c>
+      <c r="S11">
+        <v>0.1465122845398713</v>
+      </c>
+      <c r="T11">
+        <v>0.1162649462759021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1148996666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.344699</v>
+      </c>
+      <c r="I12">
+        <v>0.005222247538993557</v>
+      </c>
+      <c r="J12">
+        <v>0.005431273346901209</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.517755</v>
+      </c>
+      <c r="N12">
+        <v>7.553265</v>
+      </c>
+      <c r="O12">
+        <v>0.2504376744648922</v>
+      </c>
+      <c r="P12">
+        <v>0.286629885116792</v>
+      </c>
+      <c r="Q12">
+        <v>0.2892892102483333</v>
+      </c>
+      <c r="R12">
+        <v>2.603602892235</v>
+      </c>
+      <c r="S12">
+        <v>0.001307847529145553</v>
+      </c>
+      <c r="T12">
+        <v>0.001556765255460188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1148996666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.344699</v>
+      </c>
+      <c r="I13">
+        <v>0.005222247538993557</v>
+      </c>
+      <c r="J13">
+        <v>0.005431273346901209</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.687724</v>
+      </c>
+      <c r="N13">
+        <v>11.063172</v>
+      </c>
+      <c r="O13">
+        <v>0.3668129038085001</v>
+      </c>
+      <c r="P13">
+        <v>0.4198231783721755</v>
+      </c>
+      <c r="Q13">
+        <v>0.4237182583586666</v>
+      </c>
+      <c r="R13">
+        <v>3.813464325228</v>
+      </c>
+      <c r="S13">
+        <v>0.00191558778418502</v>
+      </c>
+      <c r="T13">
+        <v>0.002280174439104149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1148996666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.344699</v>
+      </c>
+      <c r="I14">
+        <v>0.005222247538993557</v>
+      </c>
+      <c r="J14">
+        <v>0.005431273346901209</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>3.7E-05</v>
+      </c>
+      <c r="N14">
+        <v>0.000111</v>
+      </c>
+      <c r="O14">
+        <v>3.680339808758602E-06</v>
+      </c>
+      <c r="P14">
+        <v>4.212207204164545E-06</v>
+      </c>
+      <c r="Q14">
+        <v>4.251287666666666E-06</v>
+      </c>
+      <c r="R14">
+        <v>3.8261589E-05</v>
+      </c>
+      <c r="S14">
+        <v>1.921964550894962E-08</v>
+      </c>
+      <c r="T14">
+        <v>2.287764871960415E-08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1148996666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.344699</v>
+      </c>
+      <c r="I15">
+        <v>0.005222247538993557</v>
+      </c>
+      <c r="J15">
+        <v>0.005431273346901209</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.039625</v>
+      </c>
+      <c r="N15">
+        <v>0.118875</v>
+      </c>
+      <c r="O15">
+        <v>0.003941444997893503</v>
+      </c>
+      <c r="P15">
+        <v>0.004511046228784328</v>
+      </c>
+      <c r="Q15">
+        <v>0.004552899291666667</v>
+      </c>
+      <c r="R15">
+        <v>0.040976093625</v>
+      </c>
+      <c r="S15">
+        <v>2.058320144032781E-05</v>
+      </c>
+      <c r="T15">
+        <v>2.450072514903553E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1148996666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.344699</v>
+      </c>
+      <c r="I16">
+        <v>0.005222247538993557</v>
+      </c>
+      <c r="J16">
+        <v>0.005431273346901209</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.8082785</v>
+      </c>
+      <c r="N16">
+        <v>7.616557</v>
+      </c>
+      <c r="O16">
+        <v>0.3788042963889053</v>
+      </c>
+      <c r="P16">
+        <v>0.2890316780750441</v>
+      </c>
+      <c r="Q16">
+        <v>0.4375699302238333</v>
+      </c>
+      <c r="R16">
+        <v>2.625419581343</v>
+      </c>
+      <c r="S16">
+        <v>0.001978209804577147</v>
+      </c>
+      <c r="T16">
+        <v>0.001569810049539118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.315325</v>
+      </c>
+      <c r="H17">
+        <v>0.945975</v>
+      </c>
+      <c r="I17">
+        <v>0.01433167956883957</v>
+      </c>
+      <c r="J17">
+        <v>0.01490531972629706</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.517755</v>
+      </c>
+      <c r="N17">
+        <v>7.553265</v>
+      </c>
+      <c r="O17">
+        <v>0.2504376744648922</v>
+      </c>
+      <c r="P17">
+        <v>0.286629885116792</v>
+      </c>
+      <c r="Q17">
+        <v>0.7939110953749999</v>
+      </c>
+      <c r="R17">
+        <v>7.145199858374999</v>
+      </c>
+      <c r="S17">
+        <v>0.003589192502396191</v>
+      </c>
+      <c r="T17">
+        <v>0.004272310080777581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.315325</v>
+      </c>
+      <c r="H18">
+        <v>0.945975</v>
+      </c>
+      <c r="I18">
+        <v>0.01433167956883957</v>
+      </c>
+      <c r="J18">
+        <v>0.01490531972629706</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.687724</v>
+      </c>
+      <c r="N18">
+        <v>11.063172</v>
+      </c>
+      <c r="O18">
+        <v>0.3668129038085001</v>
+      </c>
+      <c r="P18">
+        <v>0.4198231783721755</v>
+      </c>
+      <c r="Q18">
+        <v>1.1628315703</v>
+      </c>
+      <c r="R18">
+        <v>10.4654841327</v>
+      </c>
+      <c r="S18">
+        <v>0.005257044999098995</v>
+      </c>
+      <c r="T18">
+        <v>0.006257598702147519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.49925712434595</v>
-      </c>
-      <c r="H10">
-        <v>2.49925712434595</v>
-      </c>
-      <c r="I10">
-        <v>0.1211739951501094</v>
-      </c>
-      <c r="J10">
-        <v>0.1211739951501094</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.77541455205809</v>
-      </c>
-      <c r="N10">
-        <v>3.77541455205809</v>
-      </c>
-      <c r="O10">
-        <v>0.3917737405663562</v>
-      </c>
-      <c r="P10">
-        <v>0.3917737405663562</v>
-      </c>
-      <c r="Q10">
-        <v>9.435731716590555</v>
-      </c>
-      <c r="R10">
-        <v>9.435731716590555</v>
-      </c>
-      <c r="S10">
-        <v>0.04747278933932784</v>
-      </c>
-      <c r="T10">
-        <v>0.04747278933932784</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.315325</v>
+      </c>
+      <c r="H19">
+        <v>0.945975</v>
+      </c>
+      <c r="I19">
+        <v>0.01433167956883957</v>
+      </c>
+      <c r="J19">
+        <v>0.01490531972629706</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>3.7E-05</v>
+      </c>
+      <c r="N19">
+        <v>0.000111</v>
+      </c>
+      <c r="O19">
+        <v>3.680339808758602E-06</v>
+      </c>
+      <c r="P19">
+        <v>4.212207204164545E-06</v>
+      </c>
+      <c r="Q19">
+        <v>1.1667025E-05</v>
+      </c>
+      <c r="R19">
+        <v>0.000105003225</v>
+      </c>
+      <c r="S19">
+        <v>5.274545084357257E-08</v>
+      </c>
+      <c r="T19">
+        <v>6.278429513148439E-08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.315325</v>
+      </c>
+      <c r="H20">
+        <v>0.945975</v>
+      </c>
+      <c r="I20">
+        <v>0.01433167956883957</v>
+      </c>
+      <c r="J20">
+        <v>0.01490531972629706</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.039625</v>
+      </c>
+      <c r="N20">
+        <v>0.118875</v>
+      </c>
+      <c r="O20">
+        <v>0.003941444997893503</v>
+      </c>
+      <c r="P20">
+        <v>0.004511046228784328</v>
+      </c>
+      <c r="Q20">
+        <v>0.012494753125</v>
+      </c>
+      <c r="R20">
+        <v>0.112452778125</v>
+      </c>
+      <c r="S20">
+        <v>5.648752674801522E-05</v>
+      </c>
+      <c r="T20">
+        <v>6.723858634013702E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.315325</v>
+      </c>
+      <c r="H21">
+        <v>0.945975</v>
+      </c>
+      <c r="I21">
+        <v>0.01433167956883957</v>
+      </c>
+      <c r="J21">
+        <v>0.01490531972629706</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.8082785</v>
+      </c>
+      <c r="N21">
+        <v>7.616557</v>
+      </c>
+      <c r="O21">
+        <v>0.3788042963889053</v>
+      </c>
+      <c r="P21">
+        <v>0.2890316780750441</v>
+      </c>
+      <c r="Q21">
+        <v>1.2008454180125</v>
+      </c>
+      <c r="R21">
+        <v>7.205072508075</v>
+      </c>
+      <c r="S21">
+        <v>0.005428901795145521</v>
+      </c>
+      <c r="T21">
+        <v>0.004308109572736698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.5402755</v>
+      </c>
+      <c r="H22">
+        <v>5.080551</v>
+      </c>
+      <c r="I22">
+        <v>0.1154567969002575</v>
+      </c>
+      <c r="J22">
+        <v>0.08005204898729699</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.517755</v>
+      </c>
+      <c r="N22">
+        <v>7.553265</v>
+      </c>
+      <c r="O22">
+        <v>0.2504376744648922</v>
+      </c>
+      <c r="P22">
+        <v>0.286629885116792</v>
+      </c>
+      <c r="Q22">
+        <v>6.395791341502499</v>
+      </c>
+      <c r="R22">
+        <v>38.374748049015</v>
+      </c>
+      <c r="S22">
+        <v>0.02891473171686588</v>
+      </c>
+      <c r="T22">
+        <v>0.02294530960459274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.5402755</v>
+      </c>
+      <c r="H23">
+        <v>5.080551</v>
+      </c>
+      <c r="I23">
+        <v>0.1154567969002575</v>
+      </c>
+      <c r="J23">
+        <v>0.08005204898729699</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.687724</v>
+      </c>
+      <c r="N23">
+        <v>11.063172</v>
+      </c>
+      <c r="O23">
+        <v>0.3668129038085001</v>
+      </c>
+      <c r="P23">
+        <v>0.4198231783721755</v>
+      </c>
+      <c r="Q23">
+        <v>9.367834927961999</v>
+      </c>
+      <c r="R23">
+        <v>56.207009567772</v>
+      </c>
+      <c r="S23">
+        <v>0.0423510429354117</v>
+      </c>
+      <c r="T23">
+        <v>0.03360770564105212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.5402755</v>
+      </c>
+      <c r="H24">
+        <v>5.080551</v>
+      </c>
+      <c r="I24">
+        <v>0.1154567969002575</v>
+      </c>
+      <c r="J24">
+        <v>0.08005204898729699</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>3.7E-05</v>
+      </c>
+      <c r="N24">
+        <v>0.000111</v>
+      </c>
+      <c r="O24">
+        <v>3.680339808758602E-06</v>
+      </c>
+      <c r="P24">
+        <v>4.212207204164545E-06</v>
+      </c>
+      <c r="Q24">
+        <v>9.399019349999999E-05</v>
+      </c>
+      <c r="R24">
+        <v>0.000563941161</v>
+      </c>
+      <c r="S24">
+        <v>4.249202458237746E-07</v>
+      </c>
+      <c r="T24">
+        <v>3.371958174524255E-07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.5402755</v>
+      </c>
+      <c r="H25">
+        <v>5.080551</v>
+      </c>
+      <c r="I25">
+        <v>0.1154567969002575</v>
+      </c>
+      <c r="J25">
+        <v>0.08005204898729699</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.039625</v>
+      </c>
+      <c r="N25">
+        <v>0.118875</v>
+      </c>
+      <c r="O25">
+        <v>0.003941444997893503</v>
+      </c>
+      <c r="P25">
+        <v>0.004511046228784328</v>
+      </c>
+      <c r="Q25">
+        <v>0.1006584166875</v>
+      </c>
+      <c r="R25">
+        <v>0.6039505001250001</v>
+      </c>
+      <c r="S25">
+        <v>0.0004550666146153262</v>
+      </c>
+      <c r="T25">
+        <v>0.0003611184936906044</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.5402755</v>
+      </c>
+      <c r="H26">
+        <v>5.080551</v>
+      </c>
+      <c r="I26">
+        <v>0.1154567969002575</v>
+      </c>
+      <c r="J26">
+        <v>0.08005204898729699</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.8082785</v>
+      </c>
+      <c r="N26">
+        <v>7.616557</v>
+      </c>
+      <c r="O26">
+        <v>0.3788042963889053</v>
+      </c>
+      <c r="P26">
+        <v>0.2890316780750441</v>
+      </c>
+      <c r="Q26">
+        <v>9.674076570726751</v>
+      </c>
+      <c r="R26">
+        <v>38.696306282907</v>
+      </c>
+      <c r="S26">
+        <v>0.0437355307131188</v>
+      </c>
+      <c r="T26">
+        <v>0.02313757805214408</v>
       </c>
     </row>
   </sheetData>
